--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS MARZO 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS MARZO 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="97">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-2647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/C 274</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-3335</t>
@@ -428,7 +425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -477,10 +474,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,18 +506,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,10 +531,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="N:W"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,7 +1306,7 @@
       <c r="D19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="7" t="n">
@@ -1358,16 +1339,16 @@
       <c r="A20" s="5" t="n">
         <v>42438</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="7" t="n">
@@ -1398,16 +1379,16 @@
       <c r="A21" s="5" t="n">
         <v>42438</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="7" t="n">
@@ -1438,16 +1419,16 @@
       <c r="A22" s="5" t="n">
         <v>42438</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="7" t="n">
@@ -1480,16 +1461,16 @@
       <c r="A23" s="5" t="n">
         <v>42439</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="7" t="n">
@@ -1520,16 +1501,16 @@
       <c r="A24" s="5" t="n">
         <v>42439</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="7" t="n">
@@ -1560,16 +1541,16 @@
       <c r="A25" s="5" t="n">
         <v>42439</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="12" t="s">
+      <c r="D25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="7" t="n">
@@ -1602,16 +1583,16 @@
       <c r="A26" s="5" t="n">
         <v>42439</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="7" t="n">
@@ -1644,13 +1625,13 @@
       <c r="A27" s="5" t="n">
         <v>42440</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1671,7 +1652,7 @@
       <c r="J27" s="9" t="n">
         <v>42478</v>
       </c>
-      <c r="K27" s="13" t="n">
+      <c r="K27" s="12" t="n">
         <v>58866000</v>
       </c>
       <c r="L27" s="8" t="s">
@@ -1680,31 +1661,26 @@
       <c r="M27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O27" s="14" t="n">
-        <f aca="false">K27-H27</f>
-        <v>-1351500</v>
-      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>42443</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="15" t="n">
+      <c r="F28" s="14" t="n">
         <v>15800</v>
       </c>
       <c r="G28" s="7" t="n">
@@ -1719,7 +1695,7 @@
       <c r="J28" s="9" t="n">
         <v>42485</v>
       </c>
-      <c r="K28" s="16" t="n">
+      <c r="K28" s="15" t="n">
         <v>53404000</v>
       </c>
       <c r="L28" s="8" t="s">
@@ -1735,10 +1711,10 @@
         <v>42443</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>14</v>
@@ -1746,7 +1722,7 @@
       <c r="E29" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="15" t="n">
+      <c r="F29" s="14" t="n">
         <v>6200</v>
       </c>
       <c r="G29" s="7" t="n">
@@ -1761,7 +1737,7 @@
       <c r="J29" s="9" t="n">
         <v>42479</v>
       </c>
-      <c r="K29" s="16" t="n">
+      <c r="K29" s="15" t="n">
         <v>22289000</v>
       </c>
       <c r="L29" s="8" t="s">
@@ -1777,10 +1753,10 @@
         <v>42443</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>14</v>
@@ -1788,7 +1764,7 @@
       <c r="E30" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="15" t="n">
+      <c r="F30" s="14" t="n">
         <v>5300</v>
       </c>
       <c r="G30" s="7" t="n">
@@ -1803,7 +1779,7 @@
       <c r="J30" s="9" t="n">
         <v>42479</v>
       </c>
-      <c r="K30" s="16" t="n">
+      <c r="K30" s="15" t="n">
         <v>17914000</v>
       </c>
       <c r="L30" s="8" t="s">
@@ -1819,10 +1795,10 @@
         <v>42443</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>14</v>
@@ -1845,7 +1821,7 @@
       <c r="J31" s="9" t="n">
         <v>42479</v>
       </c>
-      <c r="K31" s="16" t="n">
+      <c r="K31" s="15" t="n">
         <v>15540000</v>
       </c>
       <c r="L31" s="8" t="s">
@@ -1860,13 +1836,13 @@
       <c r="A32" s="5" t="n">
         <v>42440</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -1887,24 +1863,24 @@
       <c r="J32" s="9" t="n">
         <v>42474</v>
       </c>
-      <c r="K32" s="16" t="n">
+      <c r="K32" s="15" t="n">
         <v>18694000</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>42440</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="6" t="s">
@@ -1925,24 +1901,24 @@
       <c r="J33" s="9" t="n">
         <v>42474</v>
       </c>
-      <c r="K33" s="16" t="n">
+      <c r="K33" s="15" t="n">
         <v>18252000</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>42440</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="6" t="s">
@@ -1963,11 +1939,11 @@
       <c r="J34" s="9" t="n">
         <v>42474</v>
       </c>
-      <c r="K34" s="16" t="n">
+      <c r="K34" s="15" t="n">
         <v>24518000</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,10 +1951,10 @@
         <v>42445</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>14</v>
@@ -1992,7 +1968,7 @@
       <c r="G35" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H35" s="16" t="n">
+      <c r="H35" s="15" t="n">
         <v>71900000</v>
       </c>
       <c r="I35" s="8" t="n">
@@ -2001,7 +1977,7 @@
       <c r="J35" s="9" t="n">
         <v>42485</v>
       </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="15"/>
       <c r="L35" s="8" t="s">
         <v>17</v>
       </c>
@@ -2015,10 +1991,10 @@
         <v>42445</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>14</v>
@@ -2032,7 +2008,7 @@
       <c r="G36" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H36" s="16" t="n">
+      <c r="H36" s="15" t="n">
         <v>16900000</v>
       </c>
       <c r="I36" s="8" t="n">
@@ -2041,7 +2017,7 @@
       <c r="J36" s="9" t="n">
         <v>42485</v>
       </c>
-      <c r="K36" s="16"/>
+      <c r="K36" s="15"/>
       <c r="L36" s="8" t="s">
         <v>17</v>
       </c>
@@ -2055,10 +2031,10 @@
         <v>42445</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>14</v>
@@ -2072,7 +2048,7 @@
       <c r="G37" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H37" s="16" t="n">
+      <c r="H37" s="15" t="n">
         <v>19425000</v>
       </c>
       <c r="I37" s="8" t="n">
@@ -2081,7 +2057,7 @@
       <c r="J37" s="9" t="n">
         <v>42485</v>
       </c>
-      <c r="K37" s="16" t="n">
+      <c r="K37" s="15" t="n">
         <v>108225000</v>
       </c>
       <c r="L37" s="8" t="s">
@@ -2097,10 +2073,10 @@
         <v>42445</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>14</v>
@@ -2114,7 +2090,7 @@
       <c r="G38" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H38" s="16" t="n">
+      <c r="H38" s="15" t="n">
         <v>18694000</v>
       </c>
       <c r="I38" s="8" t="n">
@@ -2123,7 +2099,7 @@
       <c r="J38" s="9" t="n">
         <v>42480</v>
       </c>
-      <c r="K38" s="16" t="n">
+      <c r="K38" s="15" t="n">
         <v>18694000</v>
       </c>
       <c r="L38" s="8" t="s">
@@ -2139,10 +2115,10 @@
         <v>42445</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>14</v>
@@ -2156,7 +2132,7 @@
       <c r="G39" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H39" s="16" t="n">
+      <c r="H39" s="15" t="n">
         <v>36669000</v>
       </c>
       <c r="I39" s="8" t="n">
@@ -2165,7 +2141,7 @@
       <c r="J39" s="9" t="n">
         <v>42486</v>
       </c>
-      <c r="K39" s="16"/>
+      <c r="K39" s="15"/>
       <c r="L39" s="8" t="s">
         <v>17</v>
       </c>
@@ -2179,10 +2155,10 @@
         <v>42445</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>14</v>
@@ -2196,7 +2172,7 @@
       <c r="G40" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H40" s="16" t="n">
+      <c r="H40" s="15" t="n">
         <v>20590500</v>
       </c>
       <c r="I40" s="8" t="n">
@@ -2205,7 +2181,7 @@
       <c r="J40" s="9" t="n">
         <v>42486</v>
       </c>
-      <c r="K40" s="16" t="n">
+      <c r="K40" s="15" t="n">
         <v>57259500</v>
       </c>
       <c r="L40" s="8" t="s">
@@ -2221,10 +2197,10 @@
         <v>42446</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>14</v>
@@ -2238,7 +2214,7 @@
       <c r="G41" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H41" s="16" t="n">
+      <c r="H41" s="15" t="n">
         <v>18694000</v>
       </c>
       <c r="I41" s="8" t="n">
@@ -2247,24 +2223,24 @@
       <c r="J41" s="9" t="n">
         <v>42486</v>
       </c>
-      <c r="K41" s="16"/>
+      <c r="K41" s="15"/>
       <c r="L41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N41" s="18"/>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>42446</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>14</v>
@@ -2278,7 +2254,7 @@
       <c r="G42" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H42" s="16" t="n">
+      <c r="H42" s="15" t="n">
         <v>17576000</v>
       </c>
       <c r="I42" s="8" t="n">
@@ -2287,24 +2263,24 @@
       <c r="J42" s="9" t="n">
         <v>42486</v>
       </c>
-      <c r="K42" s="16"/>
+      <c r="K42" s="15"/>
       <c r="L42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N42" s="18"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>42446</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>14</v>
@@ -2318,7 +2294,7 @@
       <c r="G43" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H43" s="16" t="n">
+      <c r="H43" s="15" t="n">
         <v>20979000</v>
       </c>
       <c r="I43" s="8" t="n">
@@ -2327,7 +2303,7 @@
       <c r="J43" s="9" t="n">
         <v>42486</v>
       </c>
-      <c r="K43" s="16" t="n">
+      <c r="K43" s="15" t="n">
         <v>57249000</v>
       </c>
       <c r="L43" s="8" t="s">
@@ -2343,15 +2319,15 @@
         <v>42447</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="D44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F44" s="7" t="n">
@@ -2360,7 +2336,7 @@
       <c r="G44" s="7" t="n">
         <v>3410</v>
       </c>
-      <c r="H44" s="16" t="n">
+      <c r="H44" s="15" t="n">
         <v>56606000</v>
       </c>
       <c r="I44" s="8" t="n">
@@ -2369,7 +2345,7 @@
       <c r="J44" s="9" t="n">
         <v>42480</v>
       </c>
-      <c r="K44" s="16" t="n">
+      <c r="K44" s="15" t="n">
         <v>56606000</v>
       </c>
       <c r="L44" s="8" t="s">
@@ -2384,16 +2360,16 @@
       <c r="A45" s="5" t="n">
         <v>42447</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="7" t="n">
@@ -2402,7 +2378,7 @@
       <c r="G45" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H45" s="16" t="n">
+      <c r="H45" s="15" t="n">
         <v>22289000</v>
       </c>
       <c r="I45" s="8" t="n">
@@ -2411,7 +2387,7 @@
       <c r="J45" s="9" t="n">
         <v>42492</v>
       </c>
-      <c r="K45" s="16"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="8" t="s">
         <v>17</v>
       </c>
@@ -2424,16 +2400,16 @@
       <c r="A46" s="5" t="n">
         <v>42447</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F46" s="7" t="n">
@@ -2442,7 +2418,7 @@
       <c r="G46" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H46" s="16" t="n">
+      <c r="H46" s="15" t="n">
         <v>13520000</v>
       </c>
       <c r="I46" s="8" t="n">
@@ -2451,7 +2427,7 @@
       <c r="J46" s="9" t="n">
         <v>42492</v>
       </c>
-      <c r="K46" s="16"/>
+      <c r="K46" s="15"/>
       <c r="L46" s="8" t="s">
         <v>17</v>
       </c>
@@ -2464,16 +2440,16 @@
       <c r="A47" s="5" t="n">
         <v>42447</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F47" s="7" t="n">
@@ -2482,7 +2458,7 @@
       <c r="G47" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H47" s="16" t="n">
+      <c r="H47" s="15" t="n">
         <v>20590500</v>
       </c>
       <c r="I47" s="8" t="n">
@@ -2491,7 +2467,7 @@
       <c r="J47" s="9" t="n">
         <v>42492</v>
       </c>
-      <c r="K47" s="16" t="n">
+      <c r="K47" s="15" t="n">
         <v>56399500</v>
       </c>
       <c r="L47" s="8" t="s">
@@ -2506,16 +2482,16 @@
       <c r="A48" s="5" t="n">
         <v>42447</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F48" s="7" t="n">
@@ -2524,7 +2500,7 @@
       <c r="G48" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H48" s="16" t="n">
+      <c r="H48" s="15" t="n">
         <v>38107000</v>
       </c>
       <c r="I48" s="8" t="n">
@@ -2533,7 +2509,7 @@
       <c r="J48" s="9" t="n">
         <v>42479</v>
       </c>
-      <c r="K48" s="16" t="n">
+      <c r="K48" s="15" t="n">
         <v>38107000</v>
       </c>
       <c r="L48" s="8" t="s">
@@ -2549,20 +2525,20 @@
         <v>42447</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="n">
         <v>1621000</v>
       </c>
-      <c r="H49" s="16" t="n">
+      <c r="H49" s="15" t="n">
         <v>1621000</v>
       </c>
       <c r="I49" s="8" t="n">
@@ -2571,7 +2547,7 @@
       <c r="J49" s="9" t="n">
         <v>42479</v>
       </c>
-      <c r="K49" s="16" t="n">
+      <c r="K49" s="15" t="n">
         <v>1621000</v>
       </c>
       <c r="L49" s="8" t="s">
@@ -2586,16 +2562,16 @@
       <c r="A50" s="5" t="n">
         <v>42450</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F50" s="7" t="n">
@@ -2604,7 +2580,7 @@
       <c r="G50" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H50" s="16" t="n">
+      <c r="H50" s="15" t="n">
         <v>38107000</v>
       </c>
       <c r="I50" s="8" t="n">
@@ -2613,7 +2589,7 @@
       <c r="J50" s="9" t="n">
         <v>42492</v>
       </c>
-      <c r="K50" s="16" t="n">
+      <c r="K50" s="15" t="n">
         <v>38107000</v>
       </c>
       <c r="L50" s="8" t="s">
@@ -2628,16 +2604,16 @@
       <c r="A51" s="5" t="n">
         <v>42450</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="7" t="n">
@@ -2646,7 +2622,7 @@
       <c r="G51" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H51" s="16" t="n">
+      <c r="H51" s="15" t="n">
         <v>20202000</v>
       </c>
       <c r="I51" s="8" t="n">
@@ -2655,7 +2631,7 @@
       <c r="J51" s="9" t="n">
         <v>42492</v>
       </c>
-      <c r="K51" s="16" t="n">
+      <c r="K51" s="15" t="n">
         <v>20202000</v>
       </c>
       <c r="L51" s="8" t="s">
@@ -2670,16 +2646,16 @@
       <c r="A52" s="5" t="n">
         <v>42450</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="7" t="n">
@@ -2688,7 +2664,7 @@
       <c r="G52" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H52" s="16" t="n">
+      <c r="H52" s="15" t="n">
         <v>36669000</v>
       </c>
       <c r="I52" s="8" t="n">
@@ -2697,7 +2673,7 @@
       <c r="J52" s="9" t="n">
         <v>42492</v>
       </c>
-      <c r="K52" s="16" t="n">
+      <c r="K52" s="15" t="n">
         <v>36669000</v>
       </c>
       <c r="L52" s="8" t="s">
@@ -2709,19 +2685,19 @@
       <c r="N52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19" t="n">
+      <c r="A53" s="18" t="n">
         <v>42451</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="20" t="s">
+      <c r="D53" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F53" s="11" t="n">
@@ -2730,30 +2706,30 @@
       <c r="G53" s="11" t="n">
         <v>3885</v>
       </c>
-      <c r="H53" s="13" t="n">
+      <c r="H53" s="12" t="n">
         <v>60217500</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
       <c r="N53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="n">
+      <c r="A54" s="18" t="n">
         <v>42451</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="20" t="s">
+      <c r="D54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="11" t="n">
@@ -2762,34 +2738,31 @@
       <c r="G54" s="11" t="n">
         <v>3410</v>
       </c>
-      <c r="H54" s="13" t="n">
+      <c r="H54" s="12" t="n">
         <v>36146000</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
       <c r="N54" s="4"/>
-      <c r="O54" s="14" t="n">
-        <f aca="false">-(H53+H54)</f>
-        <v>-96363500</v>
-      </c>
+      <c r="O54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="n">
         <v>42451</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F55" s="7" t="n">
@@ -2798,7 +2771,7 @@
       <c r="G55" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H55" s="16" t="n">
+      <c r="H55" s="15" t="n">
         <v>20202000</v>
       </c>
       <c r="I55" s="8" t="n">
@@ -2807,7 +2780,7 @@
       <c r="J55" s="9" t="n">
         <v>42485</v>
       </c>
-      <c r="K55" s="16" t="n">
+      <c r="K55" s="15" t="n">
         <v>20202000</v>
       </c>
       <c r="L55" s="8" t="s">
@@ -2822,16 +2795,16 @@
       <c r="A56" s="5" t="n">
         <v>42452</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="7" t="n">
@@ -2840,22 +2813,22 @@
       <c r="G56" s="7" t="n">
         <v>3410</v>
       </c>
-      <c r="H56" s="16" t="n">
+      <c r="H56" s="15" t="n">
         <v>28303000</v>
       </c>
-      <c r="I56" s="21" t="n">
+      <c r="I56" s="8" t="n">
         <v>2099281</v>
       </c>
-      <c r="J56" s="22" t="n">
+      <c r="J56" s="9" t="n">
         <v>42494</v>
       </c>
-      <c r="K56" s="16" t="n">
+      <c r="K56" s="15" t="n">
         <v>30175000</v>
       </c>
-      <c r="L56" s="21" t="s">
+      <c r="L56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="21" t="s">
+      <c r="M56" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N56" s="4"/>
@@ -2864,16 +2837,16 @@
       <c r="A57" s="5" t="n">
         <v>42452</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F57" s="7" t="n">
@@ -2882,20 +2855,20 @@
       <c r="G57" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H57" s="16" t="n">
+      <c r="H57" s="15" t="n">
         <v>13858000</v>
       </c>
-      <c r="I57" s="21" t="n">
+      <c r="I57" s="8" t="n">
         <v>2116322</v>
       </c>
-      <c r="J57" s="22" t="n">
+      <c r="J57" s="9" t="n">
         <v>42482</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="21" t="s">
+      <c r="K57" s="15"/>
+      <c r="L57" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="M57" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N57" s="4"/>
@@ -2904,16 +2877,16 @@
       <c r="A58" s="5" t="n">
         <v>42452</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F58" s="7" t="n">
@@ -2922,22 +2895,22 @@
       <c r="G58" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H58" s="16" t="n">
+      <c r="H58" s="15" t="n">
         <v>16317000</v>
       </c>
-      <c r="I58" s="21" t="n">
+      <c r="I58" s="8" t="n">
         <v>2116322</v>
       </c>
-      <c r="J58" s="22" t="n">
+      <c r="J58" s="9" t="n">
         <v>42482</v>
       </c>
-      <c r="K58" s="16" t="n">
+      <c r="K58" s="15" t="n">
         <v>28303000</v>
       </c>
-      <c r="L58" s="21" t="s">
+      <c r="L58" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="21" t="s">
+      <c r="M58" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N58" s="4"/>
@@ -2946,16 +2919,16 @@
       <c r="A59" s="5" t="n">
         <v>42452</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F59" s="7" t="n">
@@ -2964,20 +2937,20 @@
       <c r="G59" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H59" s="16" t="n">
+      <c r="H59" s="15" t="n">
         <v>31434000</v>
       </c>
-      <c r="I59" s="21" t="n">
+      <c r="I59" s="8" t="n">
         <v>2116324</v>
       </c>
-      <c r="J59" s="22" t="n">
+      <c r="J59" s="9" t="n">
         <v>42494</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="21" t="s">
+      <c r="K59" s="15"/>
+      <c r="L59" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="21" t="s">
+      <c r="M59" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N59" s="4"/>
@@ -2986,16 +2959,16 @@
       <c r="A60" s="5" t="n">
         <v>42452</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="12" t="s">
+      <c r="D60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F60" s="7" t="n">
@@ -3004,22 +2977,22 @@
       <c r="G60" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H60" s="16" t="n">
+      <c r="H60" s="15" t="n">
         <v>24087000</v>
       </c>
-      <c r="I60" s="21" t="n">
+      <c r="I60" s="8" t="n">
         <v>2116324</v>
       </c>
-      <c r="J60" s="22" t="n">
+      <c r="J60" s="9" t="n">
         <v>42494</v>
       </c>
-      <c r="K60" s="16" t="n">
+      <c r="K60" s="15" t="n">
         <v>55521000</v>
       </c>
-      <c r="L60" s="21" t="s">
+      <c r="L60" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="21" t="s">
+      <c r="M60" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N60" s="4"/>
@@ -3028,16 +3001,16 @@
       <c r="A61" s="5" t="n">
         <v>42457</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="12" t="s">
+      <c r="D61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="7" t="n">
@@ -3046,20 +3019,20 @@
       <c r="G61" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H61" s="16" t="n">
+      <c r="H61" s="15" t="n">
         <v>17975000</v>
       </c>
-      <c r="I61" s="21" t="n">
+      <c r="I61" s="8" t="n">
         <v>1546702</v>
       </c>
-      <c r="J61" s="22" t="n">
+      <c r="J61" s="9" t="n">
         <v>42499</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" s="21" t="s">
+      <c r="K61" s="15"/>
+      <c r="L61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N61" s="4"/>
@@ -3068,16 +3041,16 @@
       <c r="A62" s="5" t="n">
         <v>42457</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C62" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="12" t="s">
+      <c r="D62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F62" s="7" t="n">
@@ -3086,7 +3059,7 @@
       <c r="G62" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H62" s="16" t="n">
+      <c r="H62" s="15" t="n">
         <v>15540000</v>
       </c>
       <c r="I62" s="8" t="n">
@@ -3095,7 +3068,7 @@
       <c r="J62" s="9" t="n">
         <v>42499</v>
       </c>
-      <c r="K62" s="16" t="n">
+      <c r="K62" s="15" t="n">
         <v>33515000</v>
       </c>
       <c r="L62" s="8" t="s">
@@ -3110,16 +3083,16 @@
       <c r="A63" s="5" t="n">
         <v>42457</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F63" s="7" t="n">
@@ -3128,7 +3101,7 @@
       <c r="G63" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H63" s="16" t="n">
+      <c r="H63" s="15" t="n">
         <v>37388000</v>
       </c>
       <c r="I63" s="8" t="n">
@@ -3137,7 +3110,7 @@
       <c r="J63" s="9" t="n">
         <v>42499</v>
       </c>
-      <c r="K63" s="16"/>
+      <c r="K63" s="15"/>
       <c r="L63" s="8" t="s">
         <v>17</v>
       </c>
@@ -3150,16 +3123,16 @@
       <c r="A64" s="5" t="n">
         <v>42457</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="D64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F64" s="7" t="n">
@@ -3168,7 +3141,7 @@
       <c r="G64" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H64" s="16" t="n">
+      <c r="H64" s="15" t="n">
         <v>18252000</v>
       </c>
       <c r="I64" s="8" t="n">
@@ -3177,7 +3150,7 @@
       <c r="J64" s="9" t="n">
         <v>42499</v>
       </c>
-      <c r="K64" s="16" t="n">
+      <c r="K64" s="15" t="n">
         <v>55640000</v>
       </c>
       <c r="L64" s="8" t="s">
@@ -3192,16 +3165,16 @@
       <c r="A65" s="5" t="n">
         <v>42459</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F65" s="7" t="n">
@@ -3210,7 +3183,7 @@
       <c r="G65" s="7" t="n">
         <v>4021</v>
       </c>
-      <c r="H65" s="16" t="n">
+      <c r="H65" s="15" t="n">
         <v>21311300</v>
       </c>
       <c r="I65" s="8" t="n">
@@ -3219,7 +3192,7 @@
       <c r="J65" s="9" t="n">
         <v>42500</v>
       </c>
-      <c r="K65" s="16"/>
+      <c r="K65" s="15"/>
       <c r="L65" s="8" t="s">
         <v>17</v>
       </c>
@@ -3232,16 +3205,16 @@
       <c r="A66" s="5" t="n">
         <v>42459</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="D66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F66" s="7" t="n">
@@ -3250,7 +3223,7 @@
       <c r="G66" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H66" s="16" t="n">
+      <c r="H66" s="15" t="n">
         <v>13520000</v>
       </c>
       <c r="I66" s="8" t="n">
@@ -3259,7 +3232,7 @@
       <c r="J66" s="9" t="n">
         <v>42500</v>
       </c>
-      <c r="K66" s="16"/>
+      <c r="K66" s="15"/>
       <c r="L66" s="8" t="s">
         <v>17</v>
       </c>
@@ -3272,16 +3245,16 @@
       <c r="A67" s="5" t="n">
         <v>42459</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="12" t="s">
+      <c r="D67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F67" s="7" t="n">
@@ -3290,7 +3263,7 @@
       <c r="G67" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H67" s="16" t="n">
+      <c r="H67" s="15" t="n">
         <v>24087000</v>
       </c>
       <c r="I67" s="8" t="n">
@@ -3299,7 +3272,7 @@
       <c r="J67" s="9" t="n">
         <v>42500</v>
       </c>
-      <c r="K67" s="16" t="n">
+      <c r="K67" s="15" t="n">
         <v>58918300</v>
       </c>
       <c r="L67" s="8" t="s">
@@ -3314,16 +3287,16 @@
       <c r="A68" s="5" t="n">
         <v>42459</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="D68" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F68" s="7" t="n">
@@ -3332,7 +3305,7 @@
       <c r="G68" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H68" s="16" t="n">
+      <c r="H68" s="15" t="n">
         <v>19413000</v>
       </c>
       <c r="I68" s="8" t="n">
@@ -3341,7 +3314,7 @@
       <c r="J68" s="9" t="n">
         <v>42500</v>
       </c>
-      <c r="K68" s="16"/>
+      <c r="K68" s="15"/>
       <c r="L68" s="8" t="s">
         <v>17</v>
       </c>
@@ -3354,16 +3327,16 @@
       <c r="A69" s="5" t="n">
         <v>42459</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F69" s="7" t="n">
@@ -3372,7 +3345,7 @@
       <c r="G69" s="7" t="n">
         <v>4050</v>
       </c>
-      <c r="H69" s="16" t="n">
+      <c r="H69" s="15" t="n">
         <v>21060000</v>
       </c>
       <c r="I69" s="8" t="n">
@@ -3381,7 +3354,7 @@
       <c r="J69" s="9" t="n">
         <v>42500</v>
       </c>
-      <c r="K69" s="16"/>
+      <c r="K69" s="15"/>
       <c r="L69" s="8" t="s">
         <v>17</v>
       </c>
@@ -3394,16 +3367,16 @@
       <c r="A70" s="5" t="n">
         <v>42459</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F70" s="7" t="n">
@@ -3412,7 +3385,7 @@
       <c r="G70" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H70" s="16" t="n">
+      <c r="H70" s="15" t="n">
         <v>20202000</v>
       </c>
       <c r="I70" s="8" t="n">
@@ -3421,7 +3394,7 @@
       <c r="J70" s="9" t="n">
         <v>42500</v>
       </c>
-      <c r="K70" s="16" t="n">
+      <c r="K70" s="15" t="n">
         <v>60675000</v>
       </c>
       <c r="L70" s="8" t="s">
@@ -3436,16 +3409,16 @@
       <c r="A71" s="5" t="n">
         <v>42460</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="12" t="s">
+      <c r="D71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F71" s="7" t="n">
@@ -3454,7 +3427,7 @@
       <c r="G71" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H71" s="16" t="n">
+      <c r="H71" s="15" t="n">
         <v>18694000</v>
       </c>
       <c r="I71" s="8" t="n">
@@ -3463,7 +3436,7 @@
       <c r="J71" s="9" t="n">
         <v>42476</v>
       </c>
-      <c r="K71" s="16"/>
+      <c r="K71" s="15"/>
       <c r="L71" s="8" t="s">
         <v>17</v>
       </c>
@@ -3476,16 +3449,16 @@
       <c r="A72" s="5" t="n">
         <v>42460</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="12" t="s">
+      <c r="D72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F72" s="7" t="n">
@@ -3494,7 +3467,7 @@
       <c r="G72" s="7" t="n">
         <v>3885</v>
       </c>
-      <c r="H72" s="16" t="n">
+      <c r="H72" s="15" t="n">
         <v>41181000</v>
       </c>
       <c r="I72" s="8" t="n">
@@ -3503,7 +3476,7 @@
       <c r="J72" s="9" t="n">
         <v>42476</v>
       </c>
-      <c r="K72" s="16" t="n">
+      <c r="K72" s="15" t="n">
         <v>59875000</v>
       </c>
       <c r="L72" s="8" t="s">
@@ -3518,16 +3491,16 @@
       <c r="A73" s="5" t="n">
         <v>42460</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F73" s="7" t="n">
@@ -3536,7 +3509,7 @@
       <c r="G73" s="7" t="n">
         <v>3595</v>
       </c>
-      <c r="H73" s="16" t="n">
+      <c r="H73" s="15" t="n">
         <v>53925000</v>
       </c>
       <c r="I73" s="8" t="n">
@@ -3545,7 +3518,7 @@
       <c r="J73" s="9" t="n">
         <v>42506</v>
       </c>
-      <c r="K73" s="16"/>
+      <c r="K73" s="15"/>
       <c r="L73" s="8" t="s">
         <v>16</v>
       </c>
@@ -3558,16 +3531,16 @@
       <c r="A74" s="5" t="n">
         <v>42460</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F74" s="7" t="n">
@@ -3576,7 +3549,7 @@
       <c r="G74" s="7" t="n">
         <v>3380</v>
       </c>
-      <c r="H74" s="16" t="n">
+      <c r="H74" s="15" t="n">
         <v>50700000</v>
       </c>
       <c r="I74" s="8" t="n">
@@ -3585,7 +3558,7 @@
       <c r="J74" s="9" t="n">
         <v>42506</v>
       </c>
-      <c r="K74" s="16" t="n">
+      <c r="K74" s="15" t="n">
         <v>104625000</v>
       </c>
       <c r="L74" s="8" t="s">
@@ -3597,44 +3570,35 @@
       <c r="N74" s="4"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24" t="n">
+      <c r="A75" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="20" t="n">
         <f aca="false">SUM(H2:H74)</f>
         <v>1941395300</v>
       </c>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="24" t="n">
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="20" t="n">
         <f aca="false">SUM(K2:K74)</f>
         <v>1843680300</v>
       </c>
-      <c r="L75" s="25"/>
-      <c r="M75" s="25"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="14" t="n">
+      <c r="I78" s="13" t="n">
         <f aca="false">K75-H75</f>
         <v>-97715000</v>
       </c>
-      <c r="O78" s="14" t="n">
-        <f aca="false">O54+O27</f>
-        <v>-97715000</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O78" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A75:G75"/>
